--- a/2025_201.XLSX
+++ b/2025_201.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/physlab_technion_ac_il/Documents/BackUp2020_02_19/Teaching/Archive/2025-2026/Changes in schedules A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgeny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{96658E81-23DF-4E10-9818-3B9039D4443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E84AF1-63CB-4349-8998-89373D0085DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C54F18-65D3-4631-94F9-A373353A6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="2550" windowWidth="21765" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="668">
   <si>
     <t>00340055</t>
   </si>
@@ -2066,6 +2064,9 @@
   </si>
   <si>
     <t>קיבולת חבילת רישום</t>
+  </si>
+  <si>
+    <t>SE011 טורי פורייה והתמרות אינטגרליות</t>
   </si>
 </sst>
 </file>
@@ -2474,8 +2475,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K937"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G914" sqref="G914"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D444" sqref="D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17923,7 +17924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>284</v>
       </c>
@@ -17934,7 +17935,7 @@
         <v>286</v>
       </c>
       <c r="D442" t="s">
-        <v>287</v>
+        <v>667</v>
       </c>
       <c r="E442" t="s">
         <v>4</v>
@@ -17958,7 +17959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>284</v>
       </c>
@@ -17969,19 +17970,19 @@
         <v>286</v>
       </c>
       <c r="D443" t="s">
-        <v>288</v>
+        <v>667</v>
       </c>
       <c r="E443" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F443" t="s">
         <v>2</v>
       </c>
       <c r="G443" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="H443" t="s">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="I443" t="s">
         <v>2</v>
@@ -17993,7 +17994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>284</v>
       </c>
@@ -18004,7 +18005,7 @@
         <v>286</v>
       </c>
       <c r="D444" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E444" t="s">
         <v>4</v>
@@ -18013,7 +18014,7 @@
         <v>2</v>
       </c>
       <c r="G444" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H444" t="s">
         <v>2</v>
@@ -18022,13 +18023,13 @@
         <v>2</v>
       </c>
       <c r="J444" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K444" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>284</v>
       </c>
@@ -18039,10 +18040,10 @@
         <v>286</v>
       </c>
       <c r="D445" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E445" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F445" t="s">
         <v>2</v>
@@ -18051,19 +18052,19 @@
         <v>2</v>
       </c>
       <c r="H445" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="I445" t="s">
         <v>2</v>
       </c>
       <c r="J445" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K445" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>284</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>286</v>
       </c>
       <c r="D446" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E446" t="s">
         <v>4</v>
@@ -18083,7 +18084,7 @@
         <v>2</v>
       </c>
       <c r="G446" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H446" t="s">
         <v>2</v>
@@ -18092,13 +18093,13 @@
         <v>2</v>
       </c>
       <c r="J446" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K446" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>284</v>
       </c>
@@ -18109,16 +18110,16 @@
         <v>286</v>
       </c>
       <c r="D447" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E447" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F447" t="s">
         <v>2</v>
       </c>
       <c r="G447" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H447" t="s">
         <v>2</v>
@@ -18127,13 +18128,13 @@
         <v>2</v>
       </c>
       <c r="J447" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K447" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>284</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>286</v>
       </c>
       <c r="D448" t="s">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="E448" t="s">
         <v>4</v>
@@ -18153,22 +18154,22 @@
         <v>2</v>
       </c>
       <c r="G448" t="s">
+        <v>2</v>
+      </c>
+      <c r="H448" t="s">
+        <v>2</v>
+      </c>
+      <c r="I448" t="s">
+        <v>2</v>
+      </c>
+      <c r="J448" t="s">
         <v>60</v>
-      </c>
-      <c r="H448" t="s">
-        <v>2</v>
-      </c>
-      <c r="I448" t="s">
-        <v>2</v>
-      </c>
-      <c r="J448" t="s">
-        <v>2</v>
       </c>
       <c r="K448" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>284</v>
       </c>
@@ -18179,16 +18180,16 @@
         <v>286</v>
       </c>
       <c r="D449" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E449" t="s">
         <v>7</v>
       </c>
       <c r="F449" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G449" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>2</v>
@@ -18203,7 +18204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>284</v>
       </c>
@@ -18214,10 +18215,10 @@
         <v>286</v>
       </c>
       <c r="D450" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E450" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F450" t="s">
         <v>2</v>
@@ -18226,19 +18227,19 @@
         <v>2</v>
       </c>
       <c r="H450" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="I450" t="s">
         <v>2</v>
       </c>
       <c r="J450" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="K450" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>284</v>
       </c>
@@ -18249,16 +18250,16 @@
         <v>286</v>
       </c>
       <c r="D451" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E451" t="s">
         <v>7</v>
       </c>
       <c r="F451" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G451" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H451" t="s">
         <v>2</v>
@@ -18273,7 +18274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>284</v>
       </c>
@@ -18284,13 +18285,13 @@
         <v>286</v>
       </c>
       <c r="D452" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E452" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F452" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G452" t="s">
         <v>2</v>
@@ -18302,13 +18303,13 @@
         <v>2</v>
       </c>
       <c r="J452" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K452" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>284</v>
       </c>
@@ -18343,7 +18344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>284</v>
       </c>
@@ -18354,16 +18355,16 @@
         <v>286</v>
       </c>
       <c r="D454" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E454" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F454" t="s">
         <v>2</v>
       </c>
       <c r="G454" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H454" t="s">
         <v>2</v>
@@ -18372,13 +18373,13 @@
         <v>2</v>
       </c>
       <c r="J454" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K454" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>284</v>
       </c>
@@ -18389,16 +18390,16 @@
         <v>286</v>
       </c>
       <c r="D455" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E455" t="s">
         <v>7</v>
       </c>
       <c r="F455" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="G455" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H455" t="s">
         <v>2</v>
@@ -18410,10 +18411,10 @@
         <v>2</v>
       </c>
       <c r="K455" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>284</v>
       </c>
@@ -18424,7 +18425,7 @@
         <v>286</v>
       </c>
       <c r="D456" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="E456" t="s">
         <v>7</v>
@@ -18433,10 +18434,10 @@
         <v>2</v>
       </c>
       <c r="G456" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H456" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="I456" t="s">
         <v>2</v>
@@ -18445,7 +18446,7 @@
         <v>2</v>
       </c>
       <c r="K456" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -34058,7 +34059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>631</v>
       </c>
@@ -34443,7 +34444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>631</v>
       </c>
@@ -35287,14 +35288,12 @@
   <autoFilter ref="A1:K937" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="02340128"/>
+        <filter val="01040214"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SE023 מבוא למחשב שפת פייתון"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A442:K456">
+      <sortCondition ref="D442:D937"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
